--- a/data/Output/xlsx/results_summer_benchmark.xlsx
+++ b/data/Output/xlsx/results_summer_benchmark.xlsx
@@ -160,7 +160,7 @@
     <t>Li-ion</t>
   </si>
   <si>
-    <t>20-90</t>
+    <t>10-90</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.6038829335769921</v>
+        <v>0.6017956914054571</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5044685516338191</v>
+        <v>0.5035988673956796</v>
       </c>
       <c r="K2" t="s">
         <v>47</v>
@@ -651,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-3.499957995477366</v>
+        <v>-3.493924203493784</v>
       </c>
       <c r="T2">
         <v>-0</v>
       </c>
       <c r="U2">
-        <v>3.499957995477366</v>
+        <v>3.493924203493784</v>
       </c>
       <c r="V2">
         <v>3.508510869565217</v>
@@ -674,7 +674,7 @@
         <v>106.1251601262854</v>
       </c>
       <c r="C3">
-        <v>42.50021002261317</v>
+        <v>42.53037898253108</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>-0.4492413683783013</v>
+        <v>-0.4125420723813393</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.801770721893119E-14</v>
+        <v>0.01529137333215551</v>
       </c>
       <c r="K3" t="s">
         <v>47</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-8.293764373518315E-13</v>
+        <v>-0.1440881060999983</v>
       </c>
       <c r="T3">
         <v>-0</v>
       </c>
       <c r="U3">
-        <v>8.293764373518315E-13</v>
+        <v>0.1440881060999983</v>
       </c>
       <c r="V3">
         <v>3.527606521739131</v>
@@ -745,7 +745,7 @@
         <v>119.3189063050656</v>
       </c>
       <c r="C4">
-        <v>42.50021002260902</v>
+        <v>41.80993845203108</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>-0.500500998454283</v>
+        <v>-0.2025415159312272</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.979282759437454E-13</v>
+        <v>0.1241497843848045</v>
       </c>
       <c r="K4" t="s">
         <v>47</v>
@@ -793,13 +793,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>-1.658817383371729E-12</v>
+        <v>-1.040487113311177</v>
       </c>
       <c r="T4">
         <v>-0</v>
       </c>
       <c r="U4">
-        <v>1.658817383371729E-12</v>
+        <v>1.040487113311177</v>
       </c>
       <c r="V4">
         <v>3.495541304347826</v>
@@ -816,7 +816,7 @@
         <v>133.2452038018512</v>
       </c>
       <c r="C5">
-        <v>42.50021002260073</v>
+        <v>36.6075028854752</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-0.2025631902014733</v>
+        <v>0.01682159123628246</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1427061410615591</v>
+        <v>0.2341164666606241</v>
       </c>
       <c r="K5" t="s">
         <v>47</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-1.071003961041459</v>
+        <v>-1.75703484989057</v>
       </c>
       <c r="T5">
         <v>-0</v>
       </c>
       <c r="U5">
-        <v>1.071003961041459</v>
+        <v>1.75703484989057</v>
       </c>
       <c r="V5">
         <v>3.408865217391304</v>
@@ -887,7 +887,7 @@
         <v>150.7319573651624</v>
       </c>
       <c r="C6">
-        <v>37.14519021739343</v>
+        <v>27.82232863602234</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.6218385297603544</v>
+        <v>0.6049887053118932</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5181987748003208</v>
+        <v>0.511178014613462</v>
       </c>
       <c r="K6" t="s">
         <v>47</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>-3.429038043478092</v>
+        <v>-3.382460261900889</v>
       </c>
       <c r="T6">
         <v>-0.008844565217391305</v>
       </c>
       <c r="U6">
-        <v>3.437882608695483</v>
+        <v>3.39130482711828</v>
       </c>
       <c r="V6">
         <v>3.437882608695652</v>
@@ -958,19 +958,19 @@
         <v>74.54327405841806</v>
       </c>
       <c r="C7">
-        <v>20.00000000000297</v>
+        <v>10.9100273265179</v>
       </c>
       <c r="D7">
-        <v>9.570888597260137</v>
+        <v>9.343112603182306</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.4785444298630068</v>
+        <v>0.4671556301591153</v>
       </c>
       <c r="G7">
-        <v>-1.158428488910421</v>
+        <v>-1.142733953373553</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01924666823514112</v>
+        <v>0.01534627949872553</v>
       </c>
       <c r="K7" t="s">
         <v>47</v>
@@ -994,10 +994,10 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.393729741674179E-12</v>
+        <v>0.05232381842541436</v>
       </c>
       <c r="P7">
-        <v>9.570888597256744</v>
+        <v>9.290788784756892</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>-0</v>
       </c>
       <c r="T7">
-        <v>-0.2581945652139976</v>
+        <v>-0.2058707467919769</v>
       </c>
       <c r="U7">
-        <v>0.2581945652139976</v>
+        <v>0.2058707467919769</v>
       </c>
       <c r="V7">
         <v>3.895791304347826</v>
@@ -1029,7 +1029,7 @@
         <v>100.4097194560142</v>
       </c>
       <c r="C8">
-        <v>67.85444298630365</v>
+        <v>57.62559034242942</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.6058036644048697</v>
+        <v>0.576815117837297</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5070142404887141</v>
+        <v>0.4949356794188922</v>
       </c>
       <c r="K8" t="s">
         <v>47</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>-4.005759244986891</v>
+        <v>-3.885466497081016</v>
       </c>
       <c r="T8">
         <v>-1.043694565217391</v>
       </c>
       <c r="U8">
-        <v>5.049453810204282</v>
+        <v>4.929161062298408</v>
       </c>
       <c r="V8">
         <v>5.07114347826087</v>
@@ -1100,7 +1100,7 @@
         <v>114.0987568381507</v>
       </c>
       <c r="C9">
-        <v>47.8256467613692</v>
+        <v>38.19825785702434</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.6853259479941787</v>
+        <v>0.4203894663581019</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5711049566619902</v>
+        <v>0.4607147559802916</v>
       </c>
       <c r="K9" t="s">
         <v>47</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>-2.489164130433251</v>
+        <v>-1.52166716779511</v>
       </c>
       <c r="T9">
         <v>-2.516192391304348</v>
       </c>
       <c r="U9">
-        <v>5.005356521737599</v>
+        <v>4.037859559099457</v>
       </c>
       <c r="V9">
         <v>5.00535652173913</v>
@@ -1171,19 +1171,19 @@
         <v>94.86764298385783</v>
       </c>
       <c r="C10">
-        <v>35.37982610920294</v>
+        <v>30.58992201804879</v>
       </c>
       <c r="D10">
-        <v>9.819213072703405</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.4909606536351703</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>-0.7755749097443866</v>
+        <v>0.3592225306031072</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3774762890926056</v>
+        <v>0.3845457558222831</v>
       </c>
       <c r="K10" t="s">
         <v>47</v>
@@ -1207,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.052491427344648E-12</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>9.819213072702354</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -1219,13 +1219,13 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>-0</v>
+        <v>-0.0745192618602375</v>
       </c>
       <c r="T10">
-        <v>-3.978978260868513</v>
+        <v>-3.978978260869565</v>
       </c>
       <c r="U10">
-        <v>3.978978260868513</v>
+        <v>4.053497522729803</v>
       </c>
       <c r="V10">
         <v>4.951523913043479</v>
@@ -1242,28 +1242,28 @@
         <v>142.7665324873374</v>
       </c>
       <c r="C11">
-        <v>84.47589147271997</v>
+        <v>30.21732570874761</v>
       </c>
       <c r="D11">
-        <v>-4.08050568067376</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>0.204025284033688</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1.488755935134712</v>
+        <v>0.9000917072897302</v>
       </c>
       <c r="H11">
-        <v>0.5825596468246752</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7551635735917345</v>
+        <v>0.7526199981666066</v>
       </c>
       <c r="K11" t="s">
         <v>47</v>
@@ -1287,16 +1287,16 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>4.08050568067376</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>-0.2337706521736553</v>
+        <v>-0.2159543237890356</v>
       </c>
       <c r="T11">
         <v>-5.055729347826087</v>
       </c>
       <c r="U11">
-        <v>5.289499999999743</v>
+        <v>5.271683671615123</v>
       </c>
       <c r="V11">
         <v>5.2895</v>
@@ -1313,7 +1313,7 @@
         <v>130.3349085258269</v>
       </c>
       <c r="C12">
-        <v>62.90450980848289</v>
+        <v>29.13755408980242</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.419113911027321</v>
+        <v>1.404963260271348</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.182594925856111</v>
+        <v>1.176698821374456</v>
       </c>
       <c r="K12" t="s">
         <v>47</v>
@@ -1361,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-3.376564130434704</v>
+        <v>-3.331326023864912</v>
       </c>
       <c r="T12">
         <v>-5.69694456521739</v>
       </c>
       <c r="U12">
-        <v>9.073508695652095</v>
+        <v>9.028270589082302</v>
       </c>
       <c r="V12">
         <v>9.073508695652174</v>
@@ -1384,19 +1384,19 @@
         <v>94.46085730755678</v>
       </c>
       <c r="C13">
-        <v>46.02168915630937</v>
+        <v>12.48092397047787</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2.79623741951181</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.1398118709755905</v>
       </c>
       <c r="G13">
-        <v>0.8751193880053595</v>
+        <v>0.140843447451409</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7292661566713318</v>
+        <v>0.5271462240442407</v>
       </c>
       <c r="K13" t="s">
         <v>47</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.5979009043349803</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.198336515176829</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>-1.541820652171808</v>
+        <v>-0</v>
       </c>
       <c r="T13">
-        <v>-6.178479347826087</v>
+        <v>-5.580578443491107</v>
       </c>
       <c r="U13">
-        <v>7.720299999997895</v>
+        <v>5.580578443491107</v>
       </c>
       <c r="V13">
         <v>7.7203</v>
@@ -1455,7 +1455,7 @@
         <v>112.4862112330598</v>
       </c>
       <c r="C14">
-        <v>38.31258589545033</v>
+        <v>26.46211106803692</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.03185430687681</v>
+        <v>1.009654073308722</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8598785890640644</v>
+        <v>0.8506284917440281</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>-1.750857608695151</v>
+        <v>-1.668624442348468</v>
       </c>
       <c r="T14">
         <v>-5.893444565217392</v>
       </c>
       <c r="U14">
-        <v>7.644302173912543</v>
+        <v>7.562069007565859</v>
       </c>
       <c r="V14">
         <v>7.644302173913044</v>
@@ -1526,19 +1526,19 @@
         <v>83.37399895636226</v>
       </c>
       <c r="C15">
-        <v>29.55829785197458</v>
+        <v>18.11898885629458</v>
       </c>
       <c r="D15">
-        <v>7.979719040217908</v>
+        <v>6.487858766309234</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3989859520108954</v>
+        <v>0.3243929383154617</v>
       </c>
       <c r="G15">
-        <v>-0.4631745562927583</v>
+        <v>-0.3163198209847419</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.4525802566452739</v>
+        <v>0.4505768458153875</v>
       </c>
       <c r="K15" t="s">
         <v>47</v>
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.82369699739138E-12</v>
+        <v>0.02402920401283737</v>
       </c>
       <c r="P15">
-        <v>7.979719040213085</v>
+        <v>6.463829562296397</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1577,10 +1577,10 @@
         <v>-0</v>
       </c>
       <c r="T15">
-        <v>-5.428314130429959</v>
+        <v>-5.404284926421945</v>
       </c>
       <c r="U15">
-        <v>5.428314130429959</v>
+        <v>5.404284926421945</v>
       </c>
       <c r="V15">
         <v>7.506395652173913</v>
@@ -1597,28 +1597,28 @@
         <v>127.6562977853368</v>
       </c>
       <c r="C16">
-        <v>69.45689305306414</v>
+        <v>50.55828268784075</v>
       </c>
       <c r="D16">
-        <v>-4.021904106743579</v>
+        <v>-1.654533161080811</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.2010952053371789</v>
+        <v>0.08272665805404053</v>
       </c>
       <c r="G16">
-        <v>1.490407004842662</v>
+        <v>1.186468936127599</v>
       </c>
       <c r="H16">
-        <v>0.5134213883145272</v>
+        <v>0.2112115779066466</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.8141546804402089</v>
+        <v>0.8134345728122165</v>
       </c>
       <c r="K16" t="s">
         <v>47</v>
@@ -1642,16 +1642,16 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>4.021904106743579</v>
+        <v>1.654533161080811</v>
       </c>
       <c r="S16">
-        <v>-1.766654347825327</v>
+        <v>-1.761013359950186</v>
       </c>
       <c r="T16">
         <v>-4.611054347826087</v>
       </c>
       <c r="U16">
-        <v>6.377708695651414</v>
+        <v>6.372067707776274</v>
       </c>
       <c r="V16">
         <v>6.377708695652173</v>
@@ -1668,19 +1668,19 @@
         <v>77.33234842569557</v>
       </c>
       <c r="C17">
-        <v>40.5141007802196</v>
+        <v>33.48055008268577</v>
       </c>
       <c r="D17">
-        <v>9.897179843939936</v>
+        <v>9.790458745681542</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.4948589921969968</v>
+        <v>0.4895229372840771</v>
       </c>
       <c r="G17">
-        <v>-0.7706953400003563</v>
+        <v>-0.7674872244975506</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2583287099160284</v>
+        <v>0.2527491463468087</v>
       </c>
       <c r="K17" t="s">
         <v>47</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>9.992007221626409E-14</v>
+        <v>0.07215044781147961</v>
       </c>
       <c r="P17">
-        <v>9.897179843939837</v>
+        <v>9.718308297870063</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1719,10 +1719,10 @@
         <v>-0</v>
       </c>
       <c r="T17">
-        <v>-3.3404999999999</v>
+        <v>-3.26834955218852</v>
       </c>
       <c r="U17">
-        <v>3.3404999999999</v>
+        <v>3.26834955218852</v>
       </c>
       <c r="V17">
         <v>5.088832608695652</v>
@@ -1739,28 +1739,28 @@
         <v>139.8086256272565</v>
       </c>
       <c r="C18">
-        <v>89.99999999991928</v>
+        <v>82.43284381109348</v>
       </c>
       <c r="D18">
-        <v>-4.195753223814348</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.2097876611907174</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1.405474255553944</v>
+        <v>0.8080580268499151</v>
       </c>
       <c r="H18">
-        <v>0.5866024916926148</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6823931365511818</v>
+        <v>0.6778874127964258</v>
       </c>
       <c r="K18" t="s">
         <v>47</v>
@@ -1784,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>4.195753223814348</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>-2.905334782608167</v>
+        <v>-2.873106987402107</v>
       </c>
       <c r="T18">
         <v>-1.975573913043479</v>
       </c>
       <c r="U18">
-        <v>4.880908695651645</v>
+        <v>4.848680900445586</v>
       </c>
       <c r="V18">
         <v>4.880908695652174</v>
@@ -1810,19 +1810,19 @@
         <v>94.82122737106674</v>
       </c>
       <c r="C19">
-        <v>54.4945599678067</v>
+        <v>68.06730887408294</v>
       </c>
       <c r="D19">
-        <v>7.10108800643866</v>
+        <v>4.386538225183411</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.355054400321933</v>
+        <v>0.2193269112591706</v>
       </c>
       <c r="G19">
-        <v>-1.327227763014772</v>
+        <v>-1.020172811230579</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0658246899078906</v>
+        <v>0.06430687437623454</v>
       </c>
       <c r="K19" t="s">
         <v>47</v>
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>9.992007221626409E-15</v>
+        <v>0.01600712808448779</v>
       </c>
       <c r="P19">
-        <v>7.10108800643865</v>
+        <v>4.370531097098923</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>-0</v>
       </c>
       <c r="T19">
-        <v>-0.6941978260869466</v>
+        <v>-0.6781906980024688</v>
       </c>
       <c r="U19">
-        <v>0.6941978260869466</v>
+        <v>0.6781906980024688</v>
       </c>
       <c r="V19">
         <v>5.951606521739131</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.2547866719992231</v>
+        <v>0.3156446536791161</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1902,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.47311174775334</v>
+        <v>0.498469240119962</v>
       </c>
       <c r="K20" t="s">
         <v>47</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>-3.938139104218864</v>
+        <v>-4.158031524216768</v>
       </c>
       <c r="T20">
         <v>-0.1645413043478261</v>
       </c>
       <c r="U20">
-        <v>4.10268040856669</v>
+        <v>4.322572828564594</v>
       </c>
       <c r="V20">
         <v>6.364167391304347</v>
@@ -1952,7 +1952,7 @@
         <v>104.9907459496491</v>
       </c>
       <c r="C21">
-        <v>70.30930447890569</v>
+        <v>69.20984237891616</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>-0.1430763611477239</v>
+        <v>0.1637760585388254</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2532184715238851</v>
+        <v>0.3810736463932806</v>
       </c>
       <c r="K21" t="s">
         <v>47</v>
@@ -2000,13 +2000,13 @@
         <v>0</v>
       </c>
       <c r="S21">
-        <v>-2.411817053336512</v>
+        <v>-3.629592712638062</v>
       </c>
       <c r="T21">
         <v>-0</v>
       </c>
       <c r="U21">
-        <v>2.411817053336512</v>
+        <v>3.629592712638062</v>
       </c>
       <c r="V21">
         <v>5.959260869565217</v>
@@ -2023,7 +2023,7 @@
         <v>96.24046538329668</v>
       </c>
       <c r="C22">
-        <v>58.25021921222313</v>
+        <v>51.06187881572586</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>-0.6807535843942164</v>
+        <v>-0.4583076976286649</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.516422394511695E-14</v>
+        <v>0.09268578615234828</v>
       </c>
       <c r="K22" t="s">
         <v>47</v>
@@ -2071,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <v>-3.653787812129594E-13</v>
+        <v>-0.9630646088753708</v>
       </c>
       <c r="T22">
         <v>-0</v>
       </c>
       <c r="U22">
-        <v>3.653787812129594E-13</v>
+        <v>0.9630646088753708</v>
       </c>
       <c r="V22">
         <v>5.894554347826086</v>
@@ -2094,7 +2094,7 @@
         <v>129.2453153423419</v>
       </c>
       <c r="C23">
-        <v>58.2502192122213</v>
+        <v>46.24655577134901</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3702143706843131</v>
+        <v>0.2861447021120256</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5058376641057122</v>
+        <v>0.4708086355339257</v>
       </c>
       <c r="K23" t="s">
         <v>47</v>
@@ -2142,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>-3.913779487990428</v>
+        <v>-3.642752035436326</v>
       </c>
       <c r="T23">
         <v>-0</v>
       </c>
       <c r="U23">
-        <v>3.913779487990428</v>
+        <v>3.642752035436326</v>
       </c>
       <c r="V23">
         <v>5.440532608695652</v>
@@ -2165,28 +2165,28 @@
         <v>134.6209201425763</v>
       </c>
       <c r="C24">
-        <v>38.68132177226916</v>
+        <v>28.03279559416737</v>
       </c>
       <c r="D24">
-        <v>-3.61932706027801E-13</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1.809663530139005E-14</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0.5010543376205049</v>
+        <v>0.4543723983816018</v>
       </c>
       <c r="H24">
-        <v>4.872371391515515E-14</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.502979345292435</v>
+        <v>0.4835285372762457</v>
       </c>
       <c r="K24" t="s">
         <v>47</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>3.61932706027801E-13</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>-3.73626435445347</v>
+        <v>-3.591778579169888</v>
       </c>
       <c r="T24">
         <v>-0</v>
       </c>
       <c r="U24">
-        <v>3.73626435445347</v>
+        <v>3.591778579169888</v>
       </c>
       <c r="V24">
         <v>4.370891304347826</v>
@@ -2236,7 +2236,7 @@
         <v>105.9716222151143</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>10.07390269831794</v>
       </c>
       <c r="D25">
         <v>0</v>
